--- a/nop-ai/model/nop-ai.orm.xlsx
+++ b/nop-ai/model/nop-ai.orm.xlsx
@@ -233,7 +233,7 @@
     </font>
     <font>
       <name val="等线"/>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <charset val="134"/>
       <family val="2"/>
@@ -1264,7 +1264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{dfe83065-83a6-4232-8ec1-2a7fe7ce318d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2d16a181-bd02-4a3d-b1d2-21ec15310be5}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e7134842-8490-467b-a10f-6b7819fef2e3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043c60ff-18ed-4a4f-a3eb-7f727728a8ac}">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2582,7 +2582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964b6b82-fe07-409d-b546-41f487e18e95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5d2a6756-416f-41a8-a8cf-e7816fdd8106}">
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4124,7 +4124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f6f56af2-6381-44ab-847f-6ad7a53a12a6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8b8df1b7-5461-4d50-847f-6bfa4769a8b7}">
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5674,7 +5674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c90dd13b-f255-4fd9-aa98-5c8bd0681c49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0e1dfd8f-7b39-4e18-aba8-b33980e5aa18}">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6897,7 +6897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a1679bce-a0f7-4be2-86f2-e3516f07716e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41937cba-198a-495d-81f6-fbf8cf4deac8}">
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8593,7 +8593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69d17054-a22b-4170-88e2-5513fcfbfd08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1c53321d-a1d5-462a-84b2-f077c634cebf}">
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11193,7 +11193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ff40443-9d01-435c-8125-389558654999}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1f8666d5-4f9c-421a-8a02-2f58dc53ab88}">
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13760,7 +13760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2a211812-0e9a-490a-be4d-3bcbc89ab2dd}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2566c93e-fd75-48cb-8e8b-662c614cca09}">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14987,7 +14987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860a42c9-c100-413b-9c79-6843dd667ff1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428b942b-6857-4bed-8951-5610a329fc89}">
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17195,7 +17195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f60a7c48-017f-4911-8676-4af2dab2d7f5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f0f42ee2-385d-4592-b5c5-061c10102227}">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18426,7 +18426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5c6db89f-dc80-4819-9ff7-78d94f1ce0c5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732097c5-6c00-421f-a565-fe5dc5209797}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18646,7 +18646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214635f8-7cdc-4a0e-b408-d502e0021796}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2f996406-d1d4-48c5-b0c7-a128102eb073}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18937,8 +18937,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5b02feca-bc7e-4a3c-93ef-32937e55d862}">
-  <dimension ref="A1:G120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b403c162-749a-43d1-a853-854a02315846}">
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19191,7 +19191,7 @@
       <c r="C15" s="32"/>
       <c r="D15" s="34" t="inlineStr">
         <is>
-          <t>ai/rule_type</t>
+          <t>ai/project_language</t>
         </is>
       </c>
       <c r="E15" s="34"/>
@@ -19212,7 +19212,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="34" t="inlineStr">
         <is>
-          <t>规则类型</t>
+          <t>项目语言</t>
         </is>
       </c>
       <c r="E16" s="34"/>
@@ -19233,7 +19233,7 @@
       <c r="C17" s="32"/>
       <c r="D17" s="34" t="inlineStr">
         <is>
-          <t>项目规则分类</t>
+          <t>项目使用的编程语言类型</t>
         </is>
       </c>
       <c r="E17" s="34"/>
@@ -19298,18 +19298,18 @@
       </c>
       <c r="D20" s="24" t="inlineStr">
         <is>
-          <t>编码规范</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="E20" s="24" t="inlineStr">
         <is>
-          <t>CODING_STYLE</t>
+          <t>JAVA</t>
         </is>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24" t="inlineStr">
         <is>
-          <t>代码格式和命名规则</t>
+          <t>Java语言项目</t>
         </is>
       </c>
     </row>
@@ -19325,18 +19325,18 @@
       </c>
       <c r="D21" s="24" t="inlineStr">
         <is>
-          <t>安全规则</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="E21" s="24" t="inlineStr">
         <is>
-          <t>SECURITY</t>
+          <t>PYTHON</t>
         </is>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24" t="inlineStr">
         <is>
-          <t>安全检测和防护规则</t>
+          <t>Python语言项目</t>
         </is>
       </c>
     </row>
@@ -19352,18 +19352,18 @@
       </c>
       <c r="D22" s="24" t="inlineStr">
         <is>
-          <t>性能规则</t>
+          <t>JavaScript</t>
         </is>
       </c>
       <c r="E22" s="24" t="inlineStr">
         <is>
-          <t>PERFORMANCE</t>
+          <t>JAVASCRIPT</t>
         </is>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24" t="inlineStr">
         <is>
-          <t>性能优化规则</t>
+          <t>JavaScript/TypeScript项目</t>
         </is>
       </c>
     </row>
@@ -19379,18 +19379,18 @@
       </c>
       <c r="D23" s="24" t="inlineStr">
         <is>
-          <t>架构规则</t>
+          <t>Go</t>
         </is>
       </c>
       <c r="E23" s="24" t="inlineStr">
         <is>
-          <t>ARCHITECTURE</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24" t="inlineStr">
         <is>
-          <t>系统架构约束</t>
+          <t>Go语言项目</t>
         </is>
       </c>
     </row>
@@ -19406,38 +19406,74 @@
       </c>
       <c r="D24" s="24" t="inlineStr">
         <is>
-          <t>自定义规则</t>
+          <t>C#</t>
         </is>
       </c>
       <c r="E24" s="24" t="inlineStr">
         <is>
-          <t>CUSTOM</t>
+          <t>CSHARP</t>
         </is>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="24" t="inlineStr">
         <is>
-          <t>用户自定义规则</t>
+          <t>C#语言项目</t>
         </is>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="B25" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" s="21" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="D25" s="24" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E25" s="24" t="inlineStr">
+        <is>
+          <t>CPP</t>
+        </is>
+      </c>
       <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="G25" s="24" t="inlineStr">
+        <is>
+          <t>C++语言项目</t>
+        </is>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="B26" s="21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" s="21" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="D26" s="24" t="inlineStr">
+        <is>
+          <t>其他语言</t>
+        </is>
+      </c>
+      <c r="E26" s="24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
       <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="G26" s="24" t="inlineStr">
+        <is>
+          <t>其他编程语言</t>
+        </is>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
@@ -19469,7 +19505,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
       <c r="B30" s="21"/>
-      <c r="C30" s="25"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -19477,236 +19513,272 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="B32" s="32" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="34" t="inlineStr">
-        <is>
-          <t>ai/config_type</t>
-        </is>
-      </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="20" t="inlineStr">
-        <is>
-          <t>值类型</t>
-        </is>
-      </c>
-      <c r="G32" s="17"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="29"/>
-      <c r="B33" s="32" t="inlineStr">
-        <is>
-          <t>中文名</t>
-        </is>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="34" t="inlineStr">
-        <is>
-          <t>配置类型</t>
-        </is>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="20" t="inlineStr">
-        <is>
-          <t>英文名</t>
-        </is>
-      </c>
-      <c r="G33" s="21"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
+      <c r="A34" s="29" t="n">
+        <v>3</v>
+      </c>
       <c r="B34" s="32" t="inlineStr">
         <is>
-          <t>描述</t>
+          <t>名称</t>
         </is>
       </c>
       <c r="C34" s="32"/>
       <c r="D34" s="34" t="inlineStr">
         <is>
-          <t>项目配置项的数据类型</t>
+          <t>ai/rule_type</t>
         </is>
       </c>
       <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
+      <c r="F34" s="20" t="inlineStr">
+        <is>
+          <t>值类型</t>
+        </is>
+      </c>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="29"/>
-      <c r="B35" s="37" t="inlineStr">
-        <is>
-          <t>字典项</t>
-        </is>
-      </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
+      <c r="B35" s="32" t="inlineStr">
+        <is>
+          <t>中文名</t>
+        </is>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="34" t="inlineStr">
+        <is>
+          <t>规则类型</t>
+        </is>
+      </c>
+      <c r="E35" s="34"/>
+      <c r="F35" s="20" t="inlineStr">
+        <is>
+          <t>英文名</t>
+        </is>
+      </c>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="29"/>
-      <c r="B36" s="22" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="C36" s="23" t="inlineStr">
-        <is>
-          <t>值</t>
-        </is>
-      </c>
-      <c r="D36" s="23" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="E36" s="23" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="F36" s="23" t="inlineStr">
-        <is>
-          <t>英文名</t>
-        </is>
-      </c>
-      <c r="G36" s="23" t="inlineStr">
+      <c r="B36" s="32" t="inlineStr">
         <is>
           <t>描述</t>
         </is>
       </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="34" t="inlineStr">
+        <is>
+          <t>项目规则分类</t>
+        </is>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
-      <c r="B37" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="21" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="D37" s="24" t="inlineStr">
-        <is>
-          <t>文本</t>
-        </is>
-      </c>
-      <c r="E37" s="24" t="inlineStr">
-        <is>
-          <t>TEXT</t>
-        </is>
-      </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24" t="inlineStr">
-        <is>
-          <t>字符串类型配置</t>
-        </is>
-      </c>
+      <c r="B37" s="37" t="inlineStr">
+        <is>
+          <t>字典项</t>
+        </is>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
-      <c r="B38" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C38" s="21" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="D38" s="24" t="inlineStr">
-        <is>
-          <t>数值</t>
-        </is>
-      </c>
-      <c r="E38" s="24" t="inlineStr">
-        <is>
-          <t>NUMBER</t>
-        </is>
-      </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24" t="inlineStr">
-        <is>
-          <t>数字类型配置</t>
+      <c r="B38" s="22" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="C38" s="23" t="inlineStr">
+        <is>
+          <t>值</t>
+        </is>
+      </c>
+      <c r="D38" s="23" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="E38" s="23" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="F38" s="23" t="inlineStr">
+        <is>
+          <t>英文名</t>
+        </is>
+      </c>
+      <c r="G38" s="23" t="inlineStr">
+        <is>
+          <t>描述</t>
         </is>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
       <c r="B39" s="21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D39" s="24" t="inlineStr">
         <is>
-          <t>布尔</t>
+          <t>编码规范</t>
         </is>
       </c>
       <c r="E39" s="24" t="inlineStr">
         <is>
-          <t>BOOLEAN</t>
+          <t>CODING_STYLE</t>
         </is>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="24" t="inlineStr">
         <is>
-          <t>真假值配置</t>
+          <t>代码格式和命名规则</t>
         </is>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
+      <c r="B40" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" s="21" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="D40" s="24" t="inlineStr">
+        <is>
+          <t>安全规则</t>
+        </is>
+      </c>
+      <c r="E40" s="24" t="inlineStr">
+        <is>
+          <t>SECURITY</t>
+        </is>
+      </c>
       <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="G40" s="24" t="inlineStr">
+        <is>
+          <t>安全检测和防护规则</t>
+        </is>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
+      <c r="B41" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" s="21" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="D41" s="24" t="inlineStr">
+        <is>
+          <t>性能规则</t>
+        </is>
+      </c>
+      <c r="E41" s="24" t="inlineStr">
+        <is>
+          <t>PERFORMANCE</t>
+        </is>
+      </c>
       <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="G41" s="24" t="inlineStr">
+        <is>
+          <t>性能优化规则</t>
+        </is>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
+      <c r="B42" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" s="21" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="D42" s="24" t="inlineStr">
+        <is>
+          <t>架构规则</t>
+        </is>
+      </c>
+      <c r="E42" s="24" t="inlineStr">
+        <is>
+          <t>ARCHITECTURE</t>
+        </is>
+      </c>
       <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="G42" s="24" t="inlineStr">
+        <is>
+          <t>系统架构约束</t>
+        </is>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
+      <c r="B43" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" s="21" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="D43" s="24" t="inlineStr">
+        <is>
+          <t>自定义规则</t>
+        </is>
+      </c>
+      <c r="E43" s="24" t="inlineStr">
+        <is>
+          <t>CUSTOM</t>
+        </is>
+      </c>
       <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="G43" s="24" t="inlineStr">
+        <is>
+          <t>用户自定义规则</t>
+        </is>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
@@ -19720,7 +19792,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="29"/>
       <c r="B45" s="21"/>
-      <c r="C45" s="25"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -19728,236 +19800,236 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="29"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="B47" s="32" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="34" t="inlineStr">
-        <is>
-          <t>ai/model_provider</t>
-        </is>
-      </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="20" t="inlineStr">
-        <is>
-          <t>值类型</t>
-        </is>
-      </c>
-      <c r="G47" s="17"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="29"/>
-      <c r="B48" s="32" t="inlineStr">
-        <is>
-          <t>中文名</t>
-        </is>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="34" t="inlineStr">
-        <is>
-          <t>AI供应商</t>
-        </is>
-      </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="20" t="inlineStr">
-        <is>
-          <t>英文名</t>
-        </is>
-      </c>
-      <c r="G48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="29"/>
-      <c r="B49" s="32" t="inlineStr">
-        <is>
-          <t>描述</t>
-        </is>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="34" t="inlineStr">
-        <is>
-          <t>第三方AI服务提供商</t>
-        </is>
-      </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="29"/>
-      <c r="B50" s="37" t="inlineStr">
-        <is>
-          <t>字典项</t>
-        </is>
-      </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="B51" s="22" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="C51" s="23" t="inlineStr">
-        <is>
-          <t>值</t>
-        </is>
-      </c>
-      <c r="D51" s="23" t="inlineStr">
+      <c r="A51" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="B51" s="32" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
-      <c r="E51" s="23" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="F51" s="23" t="inlineStr">
-        <is>
-          <t>英文名</t>
-        </is>
-      </c>
-      <c r="G51" s="23" t="inlineStr">
-        <is>
-          <t>描述</t>
-        </is>
-      </c>
+      <c r="C51" s="32"/>
+      <c r="D51" s="34" t="inlineStr">
+        <is>
+          <t>ai/config_type</t>
+        </is>
+      </c>
+      <c r="E51" s="34"/>
+      <c r="F51" s="20" t="inlineStr">
+        <is>
+          <t>值类型</t>
+        </is>
+      </c>
+      <c r="G51" s="17"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="29"/>
-      <c r="B52" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" s="21" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="D52" s="24" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
-      <c r="E52" s="24" t="inlineStr">
-        <is>
-          <t>OPENAI</t>
-        </is>
-      </c>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24" t="inlineStr">
-        <is>
-          <t>OpenAI服务</t>
-        </is>
-      </c>
+      <c r="B52" s="32" t="inlineStr">
+        <is>
+          <t>中文名</t>
+        </is>
+      </c>
+      <c r="C52" s="32"/>
+      <c r="D52" s="34" t="inlineStr">
+        <is>
+          <t>配置类型</t>
+        </is>
+      </c>
+      <c r="E52" s="34"/>
+      <c r="F52" s="20" t="inlineStr">
+        <is>
+          <t>英文名</t>
+        </is>
+      </c>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="29"/>
-      <c r="B53" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C53" s="21" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="D53" s="24" t="inlineStr">
-        <is>
-          <t>Claude</t>
-        </is>
-      </c>
-      <c r="E53" s="24" t="inlineStr">
-        <is>
-          <t>CLAUDE</t>
-        </is>
-      </c>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24" t="inlineStr">
-        <is>
-          <t>Claude服务</t>
-        </is>
-      </c>
+      <c r="B53" s="32" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="D53" s="34" t="inlineStr">
+        <is>
+          <t>项目配置项的数据类型</t>
+        </is>
+      </c>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="29"/>
-      <c r="B54" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C54" s="21" t="inlineStr">
-        <is>
-          <t>003</t>
-        </is>
-      </c>
-      <c r="D54" s="24" t="inlineStr">
-        <is>
-          <t>本地模型</t>
-        </is>
-      </c>
-      <c r="E54" s="24" t="inlineStr">
-        <is>
-          <t>LOCAL</t>
-        </is>
-      </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24" t="inlineStr">
-        <is>
-          <t>本地部署模型</t>
-        </is>
-      </c>
+      <c r="B54" s="37" t="inlineStr">
+        <is>
+          <t>字典项</t>
+        </is>
+      </c>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="29"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
+      <c r="B55" s="22" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="C55" s="23" t="inlineStr">
+        <is>
+          <t>值</t>
+        </is>
+      </c>
+      <c r="D55" s="23" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="E55" s="23" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="F55" s="23" t="inlineStr">
+        <is>
+          <t>英文名</t>
+        </is>
+      </c>
+      <c r="G55" s="23" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="29"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
+      <c r="B56" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="21" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D56" s="24" t="inlineStr">
+        <is>
+          <t>文本</t>
+        </is>
+      </c>
+      <c r="E56" s="24" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
       <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
+      <c r="G56" s="24" t="inlineStr">
+        <is>
+          <t>字符串类型配置</t>
+        </is>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="29"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
+      <c r="B57" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" s="21" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="D57" s="24" t="inlineStr">
+        <is>
+          <t>数值</t>
+        </is>
+      </c>
+      <c r="E57" s="24" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
       <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
+      <c r="G57" s="24" t="inlineStr">
+        <is>
+          <t>数字类型配置</t>
+        </is>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="29"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
+      <c r="B58" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" s="21" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="D58" s="24" t="inlineStr">
+        <is>
+          <t>布尔</t>
+        </is>
+      </c>
+      <c r="E58" s="24" t="inlineStr">
+        <is>
+          <t>BOOLEAN</t>
+        </is>
+      </c>
       <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
+      <c r="G58" s="24" t="inlineStr">
+        <is>
+          <t>真假值配置</t>
+        </is>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="29"/>
@@ -19971,7 +20043,7 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="29"/>
       <c r="B60" s="21"/>
-      <c r="C60" s="25"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
@@ -19979,236 +20051,236 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="29"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="B62" s="32" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="34" t="inlineStr">
-        <is>
-          <t>ai/requirement_type</t>
-        </is>
-      </c>
-      <c r="E62" s="34"/>
-      <c r="F62" s="20" t="inlineStr">
-        <is>
-          <t>值类型</t>
-        </is>
-      </c>
-      <c r="G62" s="17"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="29"/>
-      <c r="B63" s="32" t="inlineStr">
-        <is>
-          <t>中文名</t>
-        </is>
-      </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="34" t="inlineStr">
-        <is>
-          <t>需求类型</t>
-        </is>
-      </c>
-      <c r="E63" s="34"/>
-      <c r="F63" s="20" t="inlineStr">
-        <is>
-          <t>英文名</t>
-        </is>
-      </c>
-      <c r="G63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="29"/>
-      <c r="B64" s="32" t="inlineStr">
-        <is>
-          <t>描述</t>
-        </is>
-      </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="34" t="inlineStr">
-        <is>
-          <t>需求条目的分类</t>
-        </is>
-      </c>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="29"/>
-      <c r="B65" s="37" t="inlineStr">
-        <is>
-          <t>字典项</t>
-        </is>
-      </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="29"/>
-      <c r="B66" s="22" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="C66" s="23" t="inlineStr">
-        <is>
-          <t>值</t>
-        </is>
-      </c>
-      <c r="D66" s="23" t="inlineStr">
+      <c r="A66" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" s="32" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
-      <c r="E66" s="23" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="F66" s="23" t="inlineStr">
-        <is>
-          <t>英文名</t>
-        </is>
-      </c>
-      <c r="G66" s="23" t="inlineStr">
-        <is>
-          <t>描述</t>
-        </is>
-      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="34" t="inlineStr">
+        <is>
+          <t>ai/model_provider</t>
+        </is>
+      </c>
+      <c r="E66" s="34"/>
+      <c r="F66" s="20" t="inlineStr">
+        <is>
+          <t>值类型</t>
+        </is>
+      </c>
+      <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="29"/>
-      <c r="B67" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" s="21" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="D67" s="24" t="inlineStr">
-        <is>
-          <t>总览</t>
-        </is>
-      </c>
-      <c r="E67" s="24" t="inlineStr">
-        <is>
-          <t>OVERVIEW</t>
-        </is>
-      </c>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24" t="inlineStr">
-        <is>
-          <t>需求概览</t>
-        </is>
-      </c>
+      <c r="B67" s="32" t="inlineStr">
+        <is>
+          <t>中文名</t>
+        </is>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="D67" s="34" t="inlineStr">
+        <is>
+          <t>AI供应商</t>
+        </is>
+      </c>
+      <c r="E67" s="34"/>
+      <c r="F67" s="20" t="inlineStr">
+        <is>
+          <t>英文名</t>
+        </is>
+      </c>
+      <c r="G67" s="21"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
-      <c r="B68" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C68" s="21" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="D68" s="24" t="inlineStr">
-        <is>
-          <t>模块</t>
-        </is>
-      </c>
-      <c r="E68" s="24" t="inlineStr">
-        <is>
-          <t>MODULE</t>
-        </is>
-      </c>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24" t="inlineStr">
-        <is>
-          <t>功能模块需求</t>
-        </is>
-      </c>
+      <c r="B68" s="32" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="C68" s="32"/>
+      <c r="D68" s="34" t="inlineStr">
+        <is>
+          <t>第三方AI服务提供商</t>
+        </is>
+      </c>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
-      <c r="B69" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C69" s="21" t="inlineStr">
-        <is>
-          <t>003</t>
-        </is>
-      </c>
-      <c r="D69" s="24" t="inlineStr">
-        <is>
-          <t>用例</t>
-        </is>
-      </c>
-      <c r="E69" s="24" t="inlineStr">
-        <is>
-          <t>CASE</t>
-        </is>
-      </c>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24" t="inlineStr">
-        <is>
-          <t>测试用例需求</t>
-        </is>
-      </c>
+      <c r="B69" s="37" t="inlineStr">
+        <is>
+          <t>字典项</t>
+        </is>
+      </c>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="29"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
+      <c r="B70" s="22" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="C70" s="23" t="inlineStr">
+        <is>
+          <t>值</t>
+        </is>
+      </c>
+      <c r="D70" s="23" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="E70" s="23" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="F70" s="23" t="inlineStr">
+        <is>
+          <t>英文名</t>
+        </is>
+      </c>
+      <c r="G70" s="23" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="29"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
+      <c r="B71" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" s="21" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D71" s="24" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="E71" s="24" t="inlineStr">
+        <is>
+          <t>OPENAI</t>
+        </is>
+      </c>
       <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
+      <c r="G71" s="24" t="inlineStr">
+        <is>
+          <t>OpenAI服务</t>
+        </is>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="29"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
+      <c r="B72" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" s="21" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="D72" s="24" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+      <c r="E72" s="24" t="inlineStr">
+        <is>
+          <t>CLAUDE</t>
+        </is>
+      </c>
       <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
+      <c r="G72" s="24" t="inlineStr">
+        <is>
+          <t>Claude服务</t>
+        </is>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
+      <c r="B73" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" s="21" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="D73" s="24" t="inlineStr">
+        <is>
+          <t>本地模型</t>
+        </is>
+      </c>
+      <c r="E73" s="24" t="inlineStr">
+        <is>
+          <t>LOCAL</t>
+        </is>
+      </c>
       <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
+      <c r="G73" s="24" t="inlineStr">
+        <is>
+          <t>本地部署模型</t>
+        </is>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="29"/>
@@ -20222,7 +20294,7 @@
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="29"/>
       <c r="B75" s="21"/>
-      <c r="C75" s="25"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
@@ -20230,236 +20302,236 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="29"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="29" t="n">
-        <v>6</v>
-      </c>
-      <c r="B77" s="32" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="34" t="inlineStr">
-        <is>
-          <t>ai/status_type</t>
-        </is>
-      </c>
-      <c r="E77" s="34"/>
-      <c r="F77" s="20" t="inlineStr">
-        <is>
-          <t>值类型</t>
-        </is>
-      </c>
-      <c r="G77" s="17"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="29"/>
-      <c r="B78" s="32" t="inlineStr">
-        <is>
-          <t>中文名</t>
-        </is>
-      </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="34" t="inlineStr">
-        <is>
-          <t>状态类型</t>
-        </is>
-      </c>
-      <c r="E78" s="34"/>
-      <c r="F78" s="20" t="inlineStr">
-        <is>
-          <t>英文名</t>
-        </is>
-      </c>
-      <c r="G78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="29"/>
-      <c r="B79" s="32" t="inlineStr">
-        <is>
-          <t>描述</t>
-        </is>
-      </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="34" t="inlineStr">
-        <is>
-          <t>数据记录状态</t>
-        </is>
-      </c>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="29"/>
-      <c r="B80" s="37" t="inlineStr">
-        <is>
-          <t>字典项</t>
-        </is>
-      </c>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="29"/>
-      <c r="B81" s="22" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="C81" s="23" t="inlineStr">
-        <is>
-          <t>值</t>
-        </is>
-      </c>
-      <c r="D81" s="23" t="inlineStr">
+      <c r="A81" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="B81" s="32" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
-      <c r="E81" s="23" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="F81" s="23" t="inlineStr">
-        <is>
-          <t>英文名</t>
-        </is>
-      </c>
-      <c r="G81" s="23" t="inlineStr">
-        <is>
-          <t>描述</t>
-        </is>
-      </c>
+      <c r="C81" s="32"/>
+      <c r="D81" s="34" t="inlineStr">
+        <is>
+          <t>ai/requirement_type</t>
+        </is>
+      </c>
+      <c r="E81" s="34"/>
+      <c r="F81" s="20" t="inlineStr">
+        <is>
+          <t>值类型</t>
+        </is>
+      </c>
+      <c r="G81" s="17"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="29"/>
-      <c r="B82" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" s="21" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="D82" s="24" t="inlineStr">
-        <is>
-          <t>草稿</t>
-        </is>
-      </c>
-      <c r="E82" s="24" t="inlineStr">
-        <is>
-          <t>DRAFT</t>
-        </is>
-      </c>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24" t="inlineStr">
-        <is>
-          <t>可编辑状态</t>
-        </is>
-      </c>
+      <c r="B82" s="32" t="inlineStr">
+        <is>
+          <t>中文名</t>
+        </is>
+      </c>
+      <c r="C82" s="32"/>
+      <c r="D82" s="34" t="inlineStr">
+        <is>
+          <t>需求类型</t>
+        </is>
+      </c>
+      <c r="E82" s="34"/>
+      <c r="F82" s="20" t="inlineStr">
+        <is>
+          <t>英文名</t>
+        </is>
+      </c>
+      <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="29"/>
-      <c r="B83" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C83" s="21" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="D83" s="24" t="inlineStr">
-        <is>
-          <t>初步定稿</t>
-        </is>
-      </c>
-      <c r="E83" s="24" t="inlineStr">
-        <is>
-          <t>PRE_FINAL</t>
-        </is>
-      </c>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24" t="inlineStr">
-        <is>
-          <t>需人工确认</t>
-        </is>
-      </c>
+      <c r="B83" s="32" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="C83" s="32"/>
+      <c r="D83" s="34" t="inlineStr">
+        <is>
+          <t>需求条目的分类</t>
+        </is>
+      </c>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="29"/>
-      <c r="B84" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C84" s="21" t="inlineStr">
-        <is>
-          <t>003</t>
-        </is>
-      </c>
-      <c r="D84" s="24" t="inlineStr">
-        <is>
-          <t>最终定稿</t>
-        </is>
-      </c>
-      <c r="E84" s="24" t="inlineStr">
-        <is>
-          <t>FINAL</t>
-        </is>
-      </c>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24" t="inlineStr">
-        <is>
-          <t>不可修改状态</t>
-        </is>
-      </c>
+      <c r="B84" s="37" t="inlineStr">
+        <is>
+          <t>字典项</t>
+        </is>
+      </c>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="29"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
+      <c r="B85" s="22" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="C85" s="23" t="inlineStr">
+        <is>
+          <t>值</t>
+        </is>
+      </c>
+      <c r="D85" s="23" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="E85" s="23" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="F85" s="23" t="inlineStr">
+        <is>
+          <t>英文名</t>
+        </is>
+      </c>
+      <c r="G85" s="23" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="29"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
+      <c r="B86" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" s="21" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D86" s="24" t="inlineStr">
+        <is>
+          <t>总览</t>
+        </is>
+      </c>
+      <c r="E86" s="24" t="inlineStr">
+        <is>
+          <t>OVERVIEW</t>
+        </is>
+      </c>
       <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
+      <c r="G86" s="24" t="inlineStr">
+        <is>
+          <t>需求概览</t>
+        </is>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="29"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
+      <c r="B87" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" s="21" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="D87" s="24" t="inlineStr">
+        <is>
+          <t>模块</t>
+        </is>
+      </c>
+      <c r="E87" s="24" t="inlineStr">
+        <is>
+          <t>MODULE</t>
+        </is>
+      </c>
       <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
+      <c r="G87" s="24" t="inlineStr">
+        <is>
+          <t>功能模块需求</t>
+        </is>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="29"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
+      <c r="B88" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" s="21" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="D88" s="24" t="inlineStr">
+        <is>
+          <t>用例</t>
+        </is>
+      </c>
+      <c r="E88" s="24" t="inlineStr">
+        <is>
+          <t>CASE</t>
+        </is>
+      </c>
       <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
+      <c r="G88" s="24" t="inlineStr">
+        <is>
+          <t>测试用例需求</t>
+        </is>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="29"/>
@@ -20473,7 +20545,7 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="29"/>
       <c r="B90" s="21"/>
-      <c r="C90" s="25"/>
+      <c r="C90" s="21"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
@@ -20481,223 +20553,241 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="29"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="29" t="n">
-        <v>7</v>
-      </c>
-      <c r="B92" s="32" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="34" t="inlineStr">
-        <is>
-          <t>ai/file_format</t>
-        </is>
-      </c>
-      <c r="E92" s="34"/>
-      <c r="F92" s="20" t="inlineStr">
-        <is>
-          <t>值类型</t>
-        </is>
-      </c>
-      <c r="G92" s="17"/>
+      <c r="A92" s="29"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="29"/>
-      <c r="B93" s="32" t="inlineStr">
-        <is>
-          <t>中文名</t>
-        </is>
-      </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="34" t="inlineStr">
-        <is>
-          <t>文件格式</t>
-        </is>
-      </c>
-      <c r="E93" s="34"/>
-      <c r="F93" s="20" t="inlineStr">
-        <is>
-          <t>英文名</t>
-        </is>
-      </c>
-      <c r="G93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="29"/>
-      <c r="B94" s="32" t="inlineStr">
-        <is>
-          <t>描述</t>
-        </is>
-      </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="34" t="inlineStr">
-        <is>
-          <t>知识库文档格式类型</t>
-        </is>
-      </c>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="29"/>
-      <c r="B95" s="37" t="inlineStr">
-        <is>
-          <t>字典项</t>
-        </is>
-      </c>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="29"/>
-      <c r="B96" s="22" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="C96" s="23" t="inlineStr">
-        <is>
-          <t>值</t>
-        </is>
-      </c>
-      <c r="D96" s="23" t="inlineStr">
+      <c r="A96" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B96" s="32" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
-      <c r="E96" s="23" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="F96" s="23" t="inlineStr">
-        <is>
-          <t>英文名</t>
-        </is>
-      </c>
-      <c r="G96" s="23" t="inlineStr">
-        <is>
-          <t>描述</t>
-        </is>
-      </c>
+      <c r="C96" s="32"/>
+      <c r="D96" s="34" t="inlineStr">
+        <is>
+          <t>ai/status_type</t>
+        </is>
+      </c>
+      <c r="E96" s="34"/>
+      <c r="F96" s="20" t="inlineStr">
+        <is>
+          <t>值类型</t>
+        </is>
+      </c>
+      <c r="G96" s="17"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="29"/>
-      <c r="B97" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C97" s="21" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="D97" s="24" t="inlineStr">
-        <is>
-          <t>纯文本</t>
-        </is>
-      </c>
-      <c r="E97" s="24" t="inlineStr">
-        <is>
-          <t>TEXT</t>
-        </is>
-      </c>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24" t="inlineStr">
-        <is>
-          <t>无格式文本</t>
-        </is>
-      </c>
+      <c r="B97" s="32" t="inlineStr">
+        <is>
+          <t>中文名</t>
+        </is>
+      </c>
+      <c r="C97" s="32"/>
+      <c r="D97" s="34" t="inlineStr">
+        <is>
+          <t>状态类型</t>
+        </is>
+      </c>
+      <c r="E97" s="34"/>
+      <c r="F97" s="20" t="inlineStr">
+        <is>
+          <t>英文名</t>
+        </is>
+      </c>
+      <c r="G97" s="21"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="29"/>
-      <c r="B98" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C98" s="21" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="D98" s="24" t="inlineStr">
-        <is>
-          <t>Markdown</t>
-        </is>
-      </c>
-      <c r="E98" s="24" t="inlineStr">
-        <is>
-          <t>MARKDOWN</t>
-        </is>
-      </c>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24" t="inlineStr">
-        <is>
-          <t>Markdown格式</t>
-        </is>
-      </c>
+      <c r="B98" s="32" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="C98" s="32"/>
+      <c r="D98" s="34" t="inlineStr">
+        <is>
+          <t>数据记录状态</t>
+        </is>
+      </c>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="29"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
+      <c r="B99" s="37" t="inlineStr">
+        <is>
+          <t>字典项</t>
+        </is>
+      </c>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="29"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
+      <c r="B100" s="22" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="C100" s="23" t="inlineStr">
+        <is>
+          <t>值</t>
+        </is>
+      </c>
+      <c r="D100" s="23" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="E100" s="23" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="F100" s="23" t="inlineStr">
+        <is>
+          <t>英文名</t>
+        </is>
+      </c>
+      <c r="G100" s="23" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="29"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
+      <c r="B101" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D101" s="24" t="inlineStr">
+        <is>
+          <t>草稿</t>
+        </is>
+      </c>
+      <c r="E101" s="24" t="inlineStr">
+        <is>
+          <t>DRAFT</t>
+        </is>
+      </c>
       <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
+      <c r="G101" s="24" t="inlineStr">
+        <is>
+          <t>可编辑状态</t>
+        </is>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="29"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
+      <c r="B102" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="D102" s="24" t="inlineStr">
+        <is>
+          <t>初步定稿</t>
+        </is>
+      </c>
+      <c r="E102" s="24" t="inlineStr">
+        <is>
+          <t>PRE_FINAL</t>
+        </is>
+      </c>
       <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
+      <c r="G102" s="24" t="inlineStr">
+        <is>
+          <t>需人工确认</t>
+        </is>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="29"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
+      <c r="B103" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="D103" s="24" t="inlineStr">
+        <is>
+          <t>最终定稿</t>
+        </is>
+      </c>
+      <c r="E103" s="24" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
       <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
+      <c r="G103" s="24" t="inlineStr">
+        <is>
+          <t>不可修改状态</t>
+        </is>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="29"/>
       <c r="B104" s="21"/>
-      <c r="C104" s="25"/>
+      <c r="C104" s="21"/>
       <c r="D104" s="24"/>
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
@@ -20705,236 +20795,218 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="29"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="29" t="n">
-        <v>8</v>
-      </c>
-      <c r="B106" s="32" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="C106" s="32"/>
-      <c r="D106" s="34" t="inlineStr">
-        <is>
-          <t>ai/module_type</t>
-        </is>
-      </c>
-      <c r="E106" s="34"/>
-      <c r="F106" s="20" t="inlineStr">
-        <is>
-          <t>值类型</t>
-        </is>
-      </c>
-      <c r="G106" s="17"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="29"/>
-      <c r="B107" s="32" t="inlineStr">
-        <is>
-          <t>中文名</t>
-        </is>
-      </c>
-      <c r="C107" s="32"/>
-      <c r="D107" s="34" t="inlineStr">
-        <is>
-          <t>模块类型</t>
-        </is>
-      </c>
-      <c r="E107" s="34"/>
-      <c r="F107" s="20" t="inlineStr">
-        <is>
-          <t>英文名</t>
-        </is>
-      </c>
-      <c r="G107" s="21"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="29"/>
-      <c r="B108" s="32" t="inlineStr">
-        <is>
-          <t>描述</t>
-        </is>
-      </c>
-      <c r="C108" s="32"/>
-      <c r="D108" s="34" t="inlineStr">
-        <is>
-          <t>DSL生成模块分类</t>
-        </is>
-      </c>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="29"/>
-      <c r="B109" s="37" t="inlineStr">
-        <is>
-          <t>字典项</t>
-        </is>
-      </c>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="29"/>
-      <c r="B110" s="22" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="C110" s="23" t="inlineStr">
-        <is>
-          <t>值</t>
-        </is>
-      </c>
-      <c r="D110" s="23" t="inlineStr">
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="B111" s="32" t="inlineStr">
         <is>
           <t>名称</t>
         </is>
       </c>
-      <c r="E110" s="23" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="F110" s="23" t="inlineStr">
-        <is>
-          <t>英文名</t>
-        </is>
-      </c>
-      <c r="G110" s="23" t="inlineStr">
-        <is>
-          <t>描述</t>
-        </is>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="29"/>
-      <c r="B111" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C111" s="21" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="D111" s="24" t="inlineStr">
-        <is>
-          <t>ORM模块</t>
-        </is>
-      </c>
-      <c r="E111" s="24" t="inlineStr">
-        <is>
-          <t>ORM</t>
-        </is>
-      </c>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24" t="inlineStr">
-        <is>
-          <t>数据库模型</t>
-        </is>
-      </c>
+      <c r="C111" s="32"/>
+      <c r="D111" s="34" t="inlineStr">
+        <is>
+          <t>ai/file_format</t>
+        </is>
+      </c>
+      <c r="E111" s="34"/>
+      <c r="F111" s="20" t="inlineStr">
+        <is>
+          <t>值类型</t>
+        </is>
+      </c>
+      <c r="G111" s="17"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="29"/>
-      <c r="B112" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C112" s="21" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="D112" s="24" t="inlineStr">
-        <is>
-          <t>API模块</t>
-        </is>
-      </c>
-      <c r="E112" s="24" t="inlineStr">
-        <is>
-          <t>API</t>
-        </is>
-      </c>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24" t="inlineStr">
-        <is>
-          <t>服务接口</t>
-        </is>
-      </c>
+      <c r="B112" s="32" t="inlineStr">
+        <is>
+          <t>中文名</t>
+        </is>
+      </c>
+      <c r="C112" s="32"/>
+      <c r="D112" s="34" t="inlineStr">
+        <is>
+          <t>文件格式</t>
+        </is>
+      </c>
+      <c r="E112" s="34"/>
+      <c r="F112" s="20" t="inlineStr">
+        <is>
+          <t>英文名</t>
+        </is>
+      </c>
+      <c r="G112" s="21"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="29"/>
-      <c r="B113" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C113" s="21" t="inlineStr">
-        <is>
-          <t>003</t>
-        </is>
-      </c>
-      <c r="D113" s="24" t="inlineStr">
-        <is>
-          <t>UI模块</t>
-        </is>
-      </c>
-      <c r="E113" s="24" t="inlineStr">
-        <is>
-          <t>UI</t>
-        </is>
-      </c>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24" t="inlineStr">
-        <is>
-          <t>页面定义</t>
-        </is>
-      </c>
+      <c r="B113" s="32" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="C113" s="32"/>
+      <c r="D113" s="34" t="inlineStr">
+        <is>
+          <t>知识库文档格式类型</t>
+        </is>
+      </c>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="29"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
+      <c r="B114" s="37" t="inlineStr">
+        <is>
+          <t>字典项</t>
+        </is>
+      </c>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="29"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
+      <c r="B115" s="22" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="C115" s="23" t="inlineStr">
+        <is>
+          <t>值</t>
+        </is>
+      </c>
+      <c r="D115" s="23" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="E115" s="23" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="F115" s="23" t="inlineStr">
+        <is>
+          <t>英文名</t>
+        </is>
+      </c>
+      <c r="G115" s="23" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="29"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
+      <c r="B116" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" s="21" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D116" s="24" t="inlineStr">
+        <is>
+          <t>纯文本</t>
+        </is>
+      </c>
+      <c r="E116" s="24" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
       <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
+      <c r="G116" s="24" t="inlineStr">
+        <is>
+          <t>无格式文本</t>
+        </is>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="29"/>
-      <c r="B117" s="21"/>
-      <c r="C117" s="21"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
+      <c r="B117" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C117" s="21" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="D117" s="24" t="inlineStr">
+        <is>
+          <t>Markdown</t>
+        </is>
+      </c>
+      <c r="E117" s="24" t="inlineStr">
+        <is>
+          <t>MARKDOWN</t>
+        </is>
+      </c>
       <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
+      <c r="G117" s="24" t="inlineStr">
+        <is>
+          <t>Markdown格式</t>
+        </is>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="29"/>
@@ -20948,7 +21020,7 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="29"/>
       <c r="B119" s="21"/>
-      <c r="C119" s="25"/>
+      <c r="C119" s="21"/>
       <c r="D119" s="24"/>
       <c r="E119" s="24"/>
       <c r="F119" s="24"/>
@@ -20956,15 +21028,302 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="29"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="26"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="29"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="29"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="29"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="29"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="26"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="B125" s="32" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="C125" s="32"/>
+      <c r="D125" s="34" t="inlineStr">
+        <is>
+          <t>ai/module_type</t>
+        </is>
+      </c>
+      <c r="E125" s="34"/>
+      <c r="F125" s="20" t="inlineStr">
+        <is>
+          <t>值类型</t>
+        </is>
+      </c>
+      <c r="G125" s="17"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="29"/>
+      <c r="B126" s="32" t="inlineStr">
+        <is>
+          <t>中文名</t>
+        </is>
+      </c>
+      <c r="C126" s="32"/>
+      <c r="D126" s="34" t="inlineStr">
+        <is>
+          <t>模块类型</t>
+        </is>
+      </c>
+      <c r="E126" s="34"/>
+      <c r="F126" s="20" t="inlineStr">
+        <is>
+          <t>英文名</t>
+        </is>
+      </c>
+      <c r="G126" s="21"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="29"/>
+      <c r="B127" s="32" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="C127" s="32"/>
+      <c r="D127" s="34" t="inlineStr">
+        <is>
+          <t>DSL生成模块分类</t>
+        </is>
+      </c>
+      <c r="E127" s="34"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="34"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="29"/>
+      <c r="B128" s="37" t="inlineStr">
+        <is>
+          <t>字典项</t>
+        </is>
+      </c>
+      <c r="C128" s="37"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="29"/>
+      <c r="B129" s="22" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="C129" s="23" t="inlineStr">
+        <is>
+          <t>值</t>
+        </is>
+      </c>
+      <c r="D129" s="23" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="E129" s="23" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="F129" s="23" t="inlineStr">
+        <is>
+          <t>英文名</t>
+        </is>
+      </c>
+      <c r="G129" s="23" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="29"/>
+      <c r="B130" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" s="21" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="D130" s="24" t="inlineStr">
+        <is>
+          <t>ORM模块</t>
+        </is>
+      </c>
+      <c r="E130" s="24" t="inlineStr">
+        <is>
+          <t>ORM</t>
+        </is>
+      </c>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24" t="inlineStr">
+        <is>
+          <t>数据库模型</t>
+        </is>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="29"/>
+      <c r="B131" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="D131" s="24" t="inlineStr">
+        <is>
+          <t>API模块</t>
+        </is>
+      </c>
+      <c r="E131" s="24" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24" t="inlineStr">
+        <is>
+          <t>服务接口</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="29"/>
+      <c r="B132" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C132" s="21" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="D132" s="24" t="inlineStr">
+        <is>
+          <t>UI模块</t>
+        </is>
+      </c>
+      <c r="E132" s="24" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24" t="inlineStr">
+        <is>
+          <t>页面定义</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="29"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="29"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="29"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="29"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="24"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="29"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="29"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="29"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="81">
     <mergeCell ref="A1:A14"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -20974,7 +21333,7 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="A15:A31"/>
+    <mergeCell ref="A15:A33"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B16:C16"/>
@@ -20982,68 +21341,77 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A34:A50"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B37:G37"/>
     <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="A62:A76"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="A51:A65"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:G54"/>
     <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="A77:A91"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="A66:A80"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="B69:G69"/>
     <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="A92:A105"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="A81:A95"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="B84:G84"/>
     <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="A106:A120"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="A96:A110"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="A111:A124"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="A125:A139"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B139:G139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{afa832f7-4ed2-44bd-b8c6-814b5da8900e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7c0bc3d6-c9b3-497b-8c3a-9ff473f478b0}">
   <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21388,7 +21756,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>language</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
@@ -21400,7 +21768,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="inlineStr">
         <is>
-          <t>项目名称</t>
+          <t>项目语言</t>
         </is>
       </c>
       <c r="I9" s="9"/>
@@ -21416,12 +21784,20 @@
         </is>
       </c>
       <c r="M9" s="7" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="9"/>
+      <c r="O9" s="9" t="inlineStr">
+        <is>
+          <t>ai/project_language</t>
+        </is>
+      </c>
       <c r="P9" s="9"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="7" t="inlineStr">
+        <is>
+          <t>项目使用的编程语言类型：JAVA, PYTHON等</t>
+        </is>
+      </c>
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -21436,7 +21812,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="inlineStr">
         <is>
-          <t>prototype_id</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E10" s="9" t="inlineStr">
@@ -21448,14 +21824,14 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>模板项目ID</t>
+          <t>项目名称</t>
         </is>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="7" t="inlineStr">
         <is>
-          <t/>
+          <t>M</t>
         </is>
       </c>
       <c r="L10" s="9" t="inlineStr">
@@ -21464,7 +21840,7 @@
         </is>
       </c>
       <c r="M10" s="7" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="9"/>
@@ -21473,18 +21849,20 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="inlineStr">
+      <c r="A11" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>prototype_id</t>
+        </is>
+      </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
           <t/>
@@ -21492,7 +21870,11 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>模板项目ID</t>
+        </is>
+      </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="7" t="inlineStr">
@@ -21500,8 +21882,14 @@
           <t/>
         </is>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="7"/>
+      <c r="L11" s="9" t="inlineStr">
+        <is>
+          <t>VARCHAR</t>
+        </is>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>36</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -21509,18 +21897,20 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="inlineStr">
+      <c r="A12" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>project_dir</t>
+        </is>
+      </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
           <t/>
@@ -21528,7 +21918,11 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>项目目录</t>
+        </is>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="7" t="inlineStr">
@@ -21536,12 +21930,22 @@
           <t/>
         </is>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="7"/>
+      <c r="L12" s="9" t="inlineStr">
+        <is>
+          <t>VARCHAR</t>
+        </is>
+      </c>
+      <c r="M12" s="7" t="n">
+        <v>500</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="7" t="inlineStr">
+        <is>
+          <t>项目在文件系统中的存储路径，例如：/data/projects/order-system</t>
+        </is>
+      </c>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -23761,7 +24165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0841e6be-b676-4ffc-8486-dc467594d066}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0609dfa0-eae4-4ae8-a727-ebc50779890c}">
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25373,7 +25777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498c8e4f-20b3-446c-9d40-90500007fde7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247b1234-abf7-4914-acfa-6a2cf612821a}">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26612,7 +27016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6f767f64-7048-436c-a58b-d3a63b340048}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38bceca0-a19d-43ef-a578-3e21586cb622}">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27851,7 +28255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{dad844d0-914c-48e1-b757-3857482d1046}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796d023c-dcc3-4634-8190-f03d6532e2f3}">
   <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/nop-ai/model/nop-ai.orm.xlsx
+++ b/nop-ai/model/nop-ai.orm.xlsx
@@ -1264,7 +1264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896dea64-a7d3-4408-a2a6-c22596b5b312}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9dfc05a9-ade4-4a62-8e84-9a283b414e76}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b5cdd343-ef52-4bed-ab06-ec01a43a6de2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25f1bdb0-72c5-45f1-9422-f612be9004ac}">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2570,7 +2570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21c63055-5fcc-4c8a-9958-861e1c40e736}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1b537392-fed4-4cd9-b998-5f25f5f6e674}">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3785,7 +3785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1998f0fe-6e8b-4be7-ada7-c661e216694c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fcf565e0-4397-44a7-9c47-1658de60af0a}">
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5331,7 +5331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065f3466-a3ae-4520-8597-f0401fec053e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a27602da-f071-49f9-bdf1-550dc33e4474}">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6542,7 +6542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{bcca5623-37a8-488e-9ad4-3a1ce46fd427}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d32a72e4-ba15-4913-9655-00724e1062f6}">
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8222,7 +8222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f03e9c7f-60d3-4a06-9921-0306a14cd11e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1196cf53-4631-421a-a698-3deb1a6bbcbe}">
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10774,7 +10774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7097359e-b438-41c3-a050-d3e3e02f6436}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f0452c40-f60a-45d7-a35c-652e0e9fca58}">
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13321,7 +13321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ad5cfc44-4c31-4338-98ab-24d674b8cb00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5abe2646-0fbd-4e7c-b459-cf754f952127}">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14536,7 +14536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44274b60-e30b-412e-916a-e74403476891}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e34ca203-d955-4768-ae15-f0e6247f0b5f}">
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16732,7 +16732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b9881f5c-6b73-47fb-9290-b9e4936117bb}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5fa3165d-ac97-44c1-9ebc-010b955bbde2}">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17951,7 +17951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1e9dbaec-ef22-44d3-88bc-1a3a6ed95473}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60ed7032-2af3-4820-9d94-dc2138caebdf}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18171,7 +18171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d0294b54-744e-4e7d-9be1-be4a6180b4a3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b0d2dcf5-0192-4388-83c3-7095a9544c4e}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18462,7 +18462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fb2e23f2-69bb-417d-a029-e3e9e386ea51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88980603-cd09-475b-b729-e9e1479bc156}">
   <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20936,7 +20936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d99e2b8c-d297-4f5b-a28a-be5f3a97a2cc}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7b78a321-5ad7-49f3-bfde-69bc9ee18afd}">
   <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23375,7 +23375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6bba2c8e-3fbe-4b3a-904c-7889ae7bee9d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6aea7d77-8223-4870-a82e-0d5aa0f846d7}">
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24971,7 +24971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87920fe3-0c04-4c1e-b16f-667ba5b7edd1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81262a0a-05b5-498e-aa9b-cff75db9349f}">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26194,7 +26194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8e01aef0-1e43-41e2-909f-66598af865e4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5b8b27fb-d0ad-4cee-b0b3-4a0398e58935}">
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27417,7 +27417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{fe4c5f9f-9606-41ab-b4e6-06368d067cd1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cbbfa614-8049-4fd8-b8ce-c048cd5250ae}">
   <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
